--- a/data/trans_orig/IP15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D580FD-A82E-47B8-8A5F-B299687C5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB88EDE-34F6-47F3-8942-5318E4767EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{33547AB5-DE39-4093-8128-A5C041047DD6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B934A2EE-49C8-4C33-96EA-2AC2620B579A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>21,14%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
     <t>80,09%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>30,05%</t>
   </si>
   <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
     <t>86,41%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
     <t>78,91%</t>
   </si>
   <si>
@@ -572,6 +572,54 @@
     <t>23,92%</t>
   </si>
   <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
     <t>85,34%</t>
   </si>
   <si>
@@ -620,54 +668,6 @@
     <t>17,05%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
     <t>83,45%</t>
   </si>
   <si>
@@ -779,6 +779,60 @@
     <t>32,73%</t>
   </si>
   <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
     <t>74,24%</t>
   </si>
   <si>
@@ -825,60 +879,6 @@
   </si>
   <si>
     <t>24,4%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
   </si>
   <si>
     <t>73,33%</t>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAD2A4B-588D-4D59-8187-43838A5FFAB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627BCA45-5E65-4F0D-9A4B-A15A3EA4C36E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>226443</v>
+        <v>175651</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="I7" s="7">
-        <v>220922</v>
+        <v>172519</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>669</v>
+        <v>521</v>
       </c>
       <c r="N7" s="7">
-        <v>447365</v>
+        <v>348170</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1651,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1666,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N8" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="D10" s="7">
-        <v>175651</v>
+        <v>226443</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1755,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="I10" s="7">
-        <v>172519</v>
+        <v>220922</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>521</v>
+        <v>669</v>
       </c>
       <c r="N10" s="7">
-        <v>348170</v>
+        <v>447365</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +1791,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +1806,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N11" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2058,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FC41D7-4B06-4EEF-830A-F89D6BF7C8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0626371-A392-4610-B943-339EC1B2D775}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="D7" s="7">
-        <v>234703</v>
+        <v>183230</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2346,10 +2346,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="I7" s="7">
-        <v>214059</v>
+        <v>183705</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2361,10 +2361,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>513</v>
       </c>
       <c r="N7" s="7">
-        <v>448762</v>
+        <v>366935</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2382,10 +2382,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7">
-        <v>36927</v>
+        <v>57983</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2397,10 +2397,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2412,10 +2412,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N8" s="7">
-        <v>79279</v>
+        <v>103750</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2433,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>271630</v>
+        <v>241213</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>528041</v>
+        <v>470685</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>183230</v>
+        <v>234703</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2501,10 +2501,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="I10" s="7">
-        <v>183705</v>
+        <v>214059</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2516,10 +2516,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="N10" s="7">
-        <v>366935</v>
+        <v>448762</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2537,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>57983</v>
+        <v>36927</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2552,10 +2552,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2567,10 +2567,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N11" s="7">
-        <v>103750</v>
+        <v>79279</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D12" s="7">
-        <v>241213</v>
+        <v>271630</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>470685</v>
+        <v>528041</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D2522F-441F-46C7-9E20-784B58C83B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D851FE-D11A-4958-9E1A-808A7A01CCDF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2949,7 +2949,7 @@
         <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>512</v>
@@ -2997,7 +2997,7 @@
         <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>173</v>
@@ -3077,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D7" s="7">
-        <v>240332</v>
+        <v>208229</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3089,28 +3089,28 @@
         <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="I7" s="7">
-        <v>230698</v>
+        <v>190701</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="N7" s="7">
-        <v>471030</v>
+        <v>398929</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>182</v>
@@ -3128,40 +3128,40 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D10" s="7">
-        <v>208229</v>
+        <v>240332</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3244,28 +3244,28 @@
         <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>323</v>
+      </c>
+      <c r="I10" s="7">
+        <v>230698</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="7">
-        <v>293</v>
-      </c>
-      <c r="I10" s="7">
-        <v>190701</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="N10" s="7">
-        <v>398929</v>
+        <v>471030</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>198</v>
@@ -3283,40 +3283,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7">
+        <v>37072</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="7">
-        <v>67</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44632</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="M11" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>206</v>
@@ -3334,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FC9338-2E30-4166-8055-0E320FCB30DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9BBD06-6D45-45CD-93EE-F18E5C264365}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3823,49 +3823,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>372</v>
+        <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>318030</v>
+        <v>152337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="I7" s="7">
-        <v>277198</v>
+        <v>141230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>739</v>
+        <v>399</v>
       </c>
       <c r="N7" s="7">
-        <v>595229</v>
+        <v>293567</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +3874,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N8" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204324</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>195833</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>400157</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +3978,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7">
-        <v>152337</v>
+        <v>318030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="I10" s="7">
-        <v>141230</v>
+        <v>277198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>399</v>
+        <v>739</v>
       </c>
       <c r="N10" s="7">
-        <v>293567</v>
+        <v>595229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4029,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>272</v>
@@ -4044,10 +4044,10 @@
         <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>274</v>
@@ -4059,10 +4059,10 @@
         <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N11" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>277</v>
@@ -4080,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204324</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>195833</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>550</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>400157</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4139,7 @@
         <v>552435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>280</v>
@@ -4190,7 +4190,7 @@
         <v>172537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>83</v>

--- a/data/trans_orig/IP15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB88EDE-34F6-47F3-8942-5318E4767EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63BCB54-C5BB-466A-843B-DE54C5683CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B934A2EE-49C8-4C33-96EA-2AC2620B579A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEFDCB9D-E746-4723-A6E6-36DB4E498127}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,859 +68,1039 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>73,14%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>73,92%</t>
+    <t>73,79%</t>
   </si>
   <si>
     <t>78,31%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1111,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1027,39 +1207,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +1291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1222,13 +1402,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1237,6 +1410,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1301,19 +1481,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627BCA45-5E65-4F0D-9A4B-A15A3EA4C36E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADE1E9-4132-487D-9FE0-BC50A0A3A9F4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1430,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>176687</v>
+        <v>29655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1445,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>162275</v>
+        <v>29035</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1460,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>509</v>
+        <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>338962</v>
+        <v>58690</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1481,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7">
-        <v>46474</v>
+        <v>91725</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1496,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>47921</v>
+        <v>77136</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1511,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="N5" s="7">
-        <v>94395</v>
+        <v>168861</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1532,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1562,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1585,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>175651</v>
+        <v>50960</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>172519</v>
+        <v>43221</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>521</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7">
-        <v>348170</v>
+        <v>94181</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="D8" s="7">
-        <v>42390</v>
+        <v>202796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>32703</v>
+        <v>209984</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>113</v>
+        <v>619</v>
       </c>
       <c r="N8" s="7">
-        <v>75093</v>
+        <v>412780</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>340</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>226443</v>
+        <v>23866</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>220922</v>
+        <v>22507</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>669</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>447365</v>
+        <v>46373</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7">
-        <v>55055</v>
+        <v>117649</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>44681</v>
+        <v>105041</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +2021,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="N11" s="7">
-        <v>99736</v>
+        <v>222690</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1889,55 +2089,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>871</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>578781</v>
+        <v>39438</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>828</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>555716</v>
+        <v>30543</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1699</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>1134497</v>
+        <v>69981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>143919</v>
+        <v>166611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>125305</v>
+        <v>163554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7">
-        <v>269224</v>
+        <v>330165</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,55 +2197,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>215</v>
+      </c>
+      <c r="D16" s="7">
+        <v>143919</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>190</v>
+      </c>
+      <c r="I16" s="7">
+        <v>125305</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7">
+        <v>405</v>
+      </c>
+      <c r="N16" s="7">
+        <v>269224</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>871</v>
+      </c>
+      <c r="D17" s="7">
+        <v>578781</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>828</v>
+      </c>
+      <c r="I17" s="7">
+        <v>555716</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1699</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1134497</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2058,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0626371-A392-4610-B943-339EC1B2D775}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3D8C6-BB73-4A68-86EB-312661AA110D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2075,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2176,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>175501</v>
+        <v>38426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>165926</v>
+        <v>36498</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>497</v>
+        <v>109</v>
       </c>
       <c r="N4" s="7">
-        <v>341427</v>
+        <v>74923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>63663</v>
+        <v>107564</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>59582</v>
+        <v>110263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>123245</v>
+        <v>217828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7">
-        <v>239164</v>
+        <v>145990</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>677</v>
+        <v>426</v>
       </c>
       <c r="N6" s="7">
-        <v>464672</v>
+        <v>292751</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2331,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>183230</v>
+        <v>67365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>183705</v>
+        <v>54165</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>513</v>
+        <v>171</v>
       </c>
       <c r="N7" s="7">
-        <v>366935</v>
+        <v>121529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>280</v>
+      </c>
+      <c r="D8" s="7">
+        <v>201626</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
+        <v>263</v>
+      </c>
+      <c r="I8" s="7">
+        <v>182085</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="7">
+        <v>543</v>
+      </c>
+      <c r="N8" s="7">
+        <v>383712</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="7">
-        <v>57983</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="7">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7">
-        <v>45767</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="7">
-        <v>142</v>
-      </c>
-      <c r="N8" s="7">
-        <v>103750</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241213</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>470685</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,49 +2847,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>347</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>234703</v>
+        <v>27915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>214059</v>
+        <v>29870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>651</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>448762</v>
+        <v>57785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7">
-        <v>36927</v>
+        <v>129878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>42352</v>
+        <v>127173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="N11" s="7">
-        <v>79279</v>
+        <v>257051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>271630</v>
+        <v>157793</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>528041</v>
+        <v>314836</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2635,55 +2996,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>849</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>593434</v>
+        <v>24868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>812</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>563690</v>
+        <v>27169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1661</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>1157124</v>
+        <v>52037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>158574</v>
+        <v>154365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>147701</v>
+        <v>144168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N14" s="7">
-        <v>306275</v>
+        <v>298533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,55 +3104,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179233</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350570</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>223</v>
+      </c>
+      <c r="D16" s="7">
+        <v>158574</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>213</v>
+      </c>
+      <c r="I16" s="7">
+        <v>147701</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>436</v>
+      </c>
+      <c r="N16" s="7">
+        <v>306275</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>849</v>
+      </c>
+      <c r="D17" s="7">
+        <v>593434</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>812</v>
+      </c>
+      <c r="I17" s="7">
+        <v>563690</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1661</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1157124</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1072</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>752008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1025</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>711391</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2097</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1463399</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2804,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D851FE-D11A-4958-9E1A-808A7A01CCDF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52515049-5FB1-4ED3-8A1B-086B44D9E5EF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2821,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>173007</v>
+        <v>23976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>155512</v>
+        <v>27033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>328519</v>
+        <v>51009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>40156</v>
+        <v>100188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="I5" s="7">
-        <v>45756</v>
+        <v>104621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>85912</v>
+        <v>204809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3054,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3077,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>208229</v>
+        <v>43096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>190701</v>
+        <v>42239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>596</v>
+        <v>128</v>
       </c>
       <c r="N7" s="7">
-        <v>398929</v>
+        <v>85335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>41823</v>
+        <v>214965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="I8" s="7">
-        <v>44632</v>
+        <v>168278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>127</v>
+        <v>584</v>
       </c>
       <c r="N8" s="7">
-        <v>86456</v>
+        <v>383243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,49 +3754,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>240332</v>
+        <v>33446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>230698</v>
+        <v>36124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>647</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>471030</v>
+        <v>69570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>41297</v>
+        <v>155126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>37072</v>
+        <v>152775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>78369</v>
+        <v>307901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3381,55 +3903,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>886</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>621568</v>
+        <v>22758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>869</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>576910</v>
+        <v>22065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>1755</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>1198478</v>
+        <v>44823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>123276</v>
+        <v>151290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>127461</v>
+        <v>151236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>250737</v>
+        <v>302525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,55 +4011,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>179</v>
+      </c>
+      <c r="D16" s="7">
+        <v>123276</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="7">
+        <v>192</v>
+      </c>
+      <c r="I16" s="7">
+        <v>127461</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M16" s="7">
+        <v>371</v>
+      </c>
+      <c r="N16" s="7">
+        <v>250737</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>886</v>
+      </c>
+      <c r="D17" s="7">
+        <v>621568</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="7">
+        <v>869</v>
+      </c>
+      <c r="I17" s="7">
+        <v>576910</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1755</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1198478</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3550,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9BBD06-6D45-45CD-93EE-F18E5C264365}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F50DBBA-FE07-47B9-84E5-BC0859A02871}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3567,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>82068</v>
+        <v>20935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>77605</v>
+        <v>15942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>159673</v>
+        <v>36877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7">
-        <v>35870</v>
+        <v>37568</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>26198</v>
+        <v>41427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="N5" s="7">
-        <v>62068</v>
+        <v>78994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3785,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3823,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>152337</v>
+        <v>46002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>141230</v>
+        <v>44744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>293567</v>
+        <v>90746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="D8" s="7">
-        <v>51987</v>
+        <v>128565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="I8" s="7">
-        <v>54603</v>
+        <v>114021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>106590</v>
+        <v>242586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204324</v>
+        <v>174567</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>195833</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>400157</v>
+        <v>333332</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>372</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>318030</v>
+        <v>43583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>277198</v>
+        <v>36903</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>739</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>595229</v>
+        <v>80486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>84680</v>
+        <v>158895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
-        <v>73610</v>
+        <v>136776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="N11" s="7">
-        <v>158290</v>
+        <v>295671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>173679</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>376157</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4810,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>726</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>552435</v>
+        <v>62016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>715</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>496033</v>
+        <v>56822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
-        <v>1441</v>
+        <v>148</v>
       </c>
       <c r="N13" s="7">
-        <v>1048469</v>
+        <v>118839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>172537</v>
+        <v>227408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="I14" s="7">
-        <v>154412</v>
+        <v>203811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="N14" s="7">
-        <v>326949</v>
+        <v>431218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,55 +4918,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>250</v>
+      </c>
+      <c r="D16" s="7">
+        <v>172537</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="7">
+        <v>226</v>
+      </c>
+      <c r="I16" s="7">
+        <v>154412</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>476</v>
+      </c>
+      <c r="N16" s="7">
+        <v>326949</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>726</v>
+      </c>
+      <c r="D17" s="7">
+        <v>552435</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="7">
+        <v>715</v>
+      </c>
+      <c r="I17" s="7">
+        <v>496033</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1441</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1048469</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>724972</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>650445</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1917</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1375418</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63BCB54-C5BB-466A-843B-DE54C5683CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E565771-28EE-4536-A2D1-6372092B6172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEFDCB9D-E746-4723-A6E6-36DB4E498127}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3D3863B-1D94-4494-8B0E-196426D8B1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1030 +77,1072 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>19,15%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>82,21%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>78,2%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>26,86%</t>
+    <t>26,95%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>73,14%</t>
+    <t>73,05%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADE1E9-4132-487D-9FE0-BC50A0A3A9F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2466E36C-6919-4704-A8D7-91A5EFE008FB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2277,7 +2319,7 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
@@ -2286,13 +2328,13 @@
         <v>269224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2349,13 @@
         <v>578781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>828</v>
@@ -2322,13 +2364,13 @@
         <v>555716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1699</v>
@@ -2337,13 +2379,13 @@
         <v>1134497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,7 +2441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3D8C6-BB73-4A68-86EB-312661AA110D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC55B0D-5A7B-48E0-B881-42426C1A6AA1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2436,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2543,13 +2585,13 @@
         <v>38426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -2558,13 +2600,13 @@
         <v>36498</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -2573,13 +2615,13 @@
         <v>74923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2636,13 @@
         <v>107564</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -2609,13 +2651,13 @@
         <v>110263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>317</v>
@@ -2624,13 +2666,13 @@
         <v>217828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2740,13 @@
         <v>67365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -2713,13 +2755,13 @@
         <v>54165</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -2728,13 +2770,13 @@
         <v>121529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2791,13 @@
         <v>201626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>263</v>
@@ -2764,13 +2806,13 @@
         <v>182085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>543</v>
@@ -2779,13 +2821,13 @@
         <v>383712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2895,13 @@
         <v>27915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -2868,13 +2910,13 @@
         <v>29870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2883,13 +2925,13 @@
         <v>57785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2946,13 @@
         <v>129878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>181</v>
@@ -2919,13 +2961,13 @@
         <v>127173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -2934,13 +2976,13 @@
         <v>257051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3050,13 @@
         <v>24868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3023,13 +3065,13 @@
         <v>27169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -3038,13 +3080,13 @@
         <v>52037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3101,13 @@
         <v>154365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -3074,13 +3116,13 @@
         <v>144168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>432</v>
@@ -3089,13 +3131,13 @@
         <v>298533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3205,13 @@
         <v>158574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>213</v>
@@ -3178,13 +3220,13 @@
         <v>147701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -3193,13 +3235,13 @@
         <v>306275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3256,13 @@
         <v>593434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -3229,13 +3271,13 @@
         <v>563690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>1661</v>
@@ -3244,13 +3286,13 @@
         <v>1157124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3348,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52515049-5FB1-4ED3-8A1B-086B44D9E5EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9636413-C840-48BC-A319-1ACEE387AFDE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3450,13 +3492,13 @@
         <v>23976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -3465,13 +3507,13 @@
         <v>27033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3480,13 +3522,13 @@
         <v>51009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3543,13 @@
         <v>100188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
@@ -3516,13 +3558,13 @@
         <v>104621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>316</v>
@@ -3531,13 +3573,13 @@
         <v>204809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3647,13 @@
         <v>43096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -3620,13 +3662,13 @@
         <v>42239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3635,13 +3677,13 @@
         <v>85335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3698,13 @@
         <v>214965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>267</v>
@@ -3671,13 +3713,13 @@
         <v>168278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -3686,13 +3728,13 @@
         <v>383243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3802,13 @@
         <v>33446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3775,13 +3817,13 @@
         <v>36124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3790,13 +3832,13 @@
         <v>69570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3853,13 @@
         <v>155126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>220</v>
@@ -3826,13 +3868,13 @@
         <v>152775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -3841,13 +3883,13 @@
         <v>307901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3957,13 @@
         <v>22758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3930,13 +3972,13 @@
         <v>22065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3945,13 +3987,13 @@
         <v>44823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +4008,13 @@
         <v>151290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3981,13 +4023,13 @@
         <v>151236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -3996,13 +4038,13 @@
         <v>302525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4112,13 @@
         <v>123276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>192</v>
@@ -4085,13 +4127,13 @@
         <v>127461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -4100,13 +4142,13 @@
         <v>250737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4163,13 @@
         <v>621568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
@@ -4136,13 +4178,13 @@
         <v>576910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1755</v>
@@ -4151,13 +4193,13 @@
         <v>1198478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F50DBBA-FE07-47B9-84E5-BC0859A02871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055417-7CDB-41E9-A9BB-03FFF960E8D6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4250,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4357,13 +4399,13 @@
         <v>20935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4372,13 +4414,13 @@
         <v>15942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4387,13 +4429,13 @@
         <v>36877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4450,13 @@
         <v>37568</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>79</v>
@@ -4423,13 +4465,13 @@
         <v>41427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -4438,13 +4480,13 @@
         <v>78994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4554,13 @@
         <v>46002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -4527,13 +4569,13 @@
         <v>44744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -4542,13 +4584,13 @@
         <v>90746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4605,13 @@
         <v>128565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>186</v>
@@ -4578,13 +4620,13 @@
         <v>114021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -4593,13 +4635,13 @@
         <v>242586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4709,13 @@
         <v>43583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4682,13 +4724,13 @@
         <v>36903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4697,13 +4739,13 @@
         <v>80486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4760,13 @@
         <v>158895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>179</v>
@@ -4733,13 +4775,13 @@
         <v>136776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>366</v>
@@ -4748,13 +4790,13 @@
         <v>295671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4864,13 @@
         <v>62016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4837,13 +4879,13 @@
         <v>56822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -4852,13 +4894,13 @@
         <v>118839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4915,13 @@
         <v>227408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>271</v>
@@ -4888,13 +4930,13 @@
         <v>203811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
@@ -4903,13 +4945,13 @@
         <v>431218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5019,13 @@
         <v>172537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -4992,13 +5034,13 @@
         <v>154412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -5007,13 +5049,13 @@
         <v>326949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5070,13 @@
         <v>552435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>715</v>
@@ -5043,13 +5085,13 @@
         <v>496033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
@@ -5058,13 +5100,13 @@
         <v>1048469</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5162,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E565771-28EE-4536-A2D1-6372092B6172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E25DCB9-447E-4934-9910-31370F0BAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3D3863B-1D94-4494-8B0E-196426D8B1A3}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8FBCAA73-2C58-4F61-BCFF-6B3AABA943D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1075 +74,1075 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
     <t>24,43%</t>
   </si>
   <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2466E36C-6919-4704-A8D7-91A5EFE008FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D2FB1-B087-4AFD-B7D0-7847F0C02C80}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>29655</v>
+        <v>29035</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1687,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>29035</v>
+        <v>29655</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1723,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>91725</v>
+        <v>77136</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1738,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I5" s="7">
-        <v>77136</v>
+        <v>91725</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1774,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1827,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>50960</v>
+        <v>43221</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1842,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>43221</v>
+        <v>50960</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1878,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>202796</v>
+        <v>209984</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1893,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I8" s="7">
-        <v>209984</v>
+        <v>202796</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1929,25 +1929,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>23866</v>
+        <v>22507</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1997,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>22507</v>
+        <v>23866</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2033,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>117649</v>
+        <v>105041</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2048,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I11" s="7">
-        <v>105041</v>
+        <v>117649</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2084,25 +2084,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2137,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>39438</v>
+        <v>30543</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2152,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>30543</v>
+        <v>39438</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2188,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>166611</v>
+        <v>163554</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2203,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="I14" s="7">
-        <v>163554</v>
+        <v>166611</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2239,25 +2239,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2292,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D16" s="7">
-        <v>143919</v>
+        <v>125305</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2307,10 +2307,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>125305</v>
+        <v>143919</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2343,10 +2343,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>871</v>
+        <v>828</v>
       </c>
       <c r="D17" s="7">
-        <v>578781</v>
+        <v>555716</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2358,10 +2358,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>828</v>
+        <v>871</v>
       </c>
       <c r="I17" s="7">
-        <v>555716</v>
+        <v>578781</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2394,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC55B0D-5A7B-48E0-B881-42426C1A6AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A8F72-AEF8-44A0-BF70-59CB42EE3985}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2579,10 +2579,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>38426</v>
+        <v>36498</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2594,10 +2594,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>36498</v>
+        <v>38426</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2630,10 +2630,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>107564</v>
+        <v>110263</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2645,10 +2645,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I5" s="7">
-        <v>110263</v>
+        <v>107564</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2681,25 +2681,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>207</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145990</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2734,10 +2734,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>67365</v>
+        <v>54165</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2749,19 +2749,19 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>54165</v>
+        <v>67365</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -2770,13 +2770,13 @@
         <v>121529</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,34 +2785,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>263</v>
+      </c>
+      <c r="D8" s="7">
+        <v>182085</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="7">
         <v>280</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>201626</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="7">
-        <v>263</v>
-      </c>
-      <c r="I8" s="7">
-        <v>182085</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>543</v>
@@ -2821,13 +2821,13 @@
         <v>383712</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,25 +2836,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2889,34 +2889,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>39</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>27915</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="7">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29870</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2925,13 +2925,13 @@
         <v>57785</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,34 +2940,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>181</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127173</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>188</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>129878</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="7">
-        <v>181</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127173</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -2976,10 +2976,10 @@
         <v>257051</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>159</v>
@@ -2991,25 +2991,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>227</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>157793</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3044,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>24868</v>
+        <v>27169</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3059,10 +3059,10 @@
         <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>27169</v>
+        <v>24868</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>163</v>
@@ -3095,10 +3095,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>154365</v>
+        <v>144168</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>169</v>
@@ -3110,10 +3110,10 @@
         <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>144168</v>
+        <v>154365</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>172</v>
@@ -3146,25 +3146,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179233</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3199,10 +3199,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D16" s="7">
-        <v>158574</v>
+        <v>147701</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>178</v>
@@ -3214,19 +3214,19 @@
         <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="I16" s="7">
-        <v>147701</v>
+        <v>158574</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -3235,13 +3235,13 @@
         <v>306275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,34 +3250,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>812</v>
+      </c>
+      <c r="D17" s="7">
+        <v>563690</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
         <v>849</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>593434</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="7">
-        <v>812</v>
-      </c>
-      <c r="I17" s="7">
-        <v>563690</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1661</v>
@@ -3286,13 +3286,13 @@
         <v>1157124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,25 +3301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D18" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1072</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>752008</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3368,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9636413-C840-48BC-A319-1ACEE387AFDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F43A911-9253-48F7-BCAD-E6B8EB730520}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3486,34 +3486,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>23976</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="7">
-        <v>44</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27033</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3522,13 +3522,13 @@
         <v>51009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,34 +3537,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>167</v>
+      </c>
+      <c r="D5" s="7">
+        <v>104621</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="7">
         <v>149</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>100188</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="7">
-        <v>167</v>
-      </c>
-      <c r="I5" s="7">
-        <v>104621</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>316</v>
@@ -3573,13 +3573,13 @@
         <v>204809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,25 +3588,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3641,34 +3641,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="7">
         <v>63</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>43096</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <v>65</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42239</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3677,13 +3677,13 @@
         <v>85335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,34 +3692,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>267</v>
+      </c>
+      <c r="D8" s="7">
+        <v>168278</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>317</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>214965</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" s="7">
-        <v>267</v>
-      </c>
-      <c r="I8" s="7">
-        <v>168278</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -3728,13 +3728,13 @@
         <v>383243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,25 +3743,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3796,34 +3796,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="7">
         <v>47</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>33446</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="7">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36124</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3832,13 +3832,13 @@
         <v>69570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,34 +3847,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>152775</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7">
         <v>216</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>155126</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>152775</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -3883,13 +3883,13 @@
         <v>307901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,25 +3898,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3954,31 +3954,31 @@
         <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3987,13 +3987,13 @@
         <v>44823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,34 +4002,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7">
+        <v>151236</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="7">
         <v>204</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>151290</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>151236</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -4038,13 +4038,13 @@
         <v>302525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,25 +4053,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4106,34 +4106,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>192</v>
+      </c>
+      <c r="D16" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="7">
         <v>179</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>123276</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="7">
-        <v>192</v>
-      </c>
-      <c r="I16" s="7">
-        <v>127461</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -4142,13 +4142,13 @@
         <v>250737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,34 +4157,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>869</v>
+      </c>
+      <c r="D17" s="7">
+        <v>576910</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>886</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>621568</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="7">
-        <v>869</v>
-      </c>
-      <c r="I17" s="7">
-        <v>576910</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>1755</v>
@@ -4193,13 +4193,13 @@
         <v>1198478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,25 +4208,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4275,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055417-7CDB-41E9-A9BB-03FFF960E8D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C260EE0-9993-4A63-9B6A-936C35124BD1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>42</v>
       </c>
-      <c r="D4" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="7">
-        <v>30</v>
-      </c>
       <c r="I4" s="7">
-        <v>15942</v>
+        <v>22356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>79</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41528</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="7">
         <v>74</v>
       </c>
-      <c r="D5" s="7">
-        <v>37568</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" s="7">
-        <v>79</v>
-      </c>
       <c r="I5" s="7">
-        <v>41427</v>
+        <v>39088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
       </c>
       <c r="N5" s="7">
-        <v>78994</v>
+        <v>80615</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,25 +4495,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4528,7 +4528,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4548,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>46002</v>
+        <v>46623</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>300</v>
@@ -4563,10 +4563,10 @@
         <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>303</v>
@@ -4581,7 +4581,7 @@
         <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>306</v>
@@ -4599,10 +4599,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D8" s="7">
-        <v>128565</v>
+        <v>112676</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>309</v>
@@ -4614,10 +4614,10 @@
         <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I8" s="7">
-        <v>114021</v>
+        <v>132863</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>312</v>
@@ -4632,7 +4632,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>242586</v>
+        <v>245540</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>315</v>
@@ -4650,25 +4650,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174567</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181847</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4683,7 +4683,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333332</v>
+        <v>341147</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4703,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>43583</v>
+        <v>37151</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>318</v>
@@ -4718,10 +4718,10 @@
         <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>321</v>
@@ -4736,7 +4736,7 @@
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>324</v>
@@ -4745,7 +4745,7 @@
         <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,10 +4754,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7">
-        <v>158895</v>
+        <v>132422</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>326</v>
@@ -4769,10 +4769,10 @@
         <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>136776</v>
+        <v>166321</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>329</v>
@@ -4787,13 +4787,13 @@
         <v>366</v>
       </c>
       <c r="N11" s="7">
-        <v>295671</v>
+        <v>298743</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>333</v>
@@ -4805,25 +4805,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169573</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>232</v>
-      </c>
       <c r="I12" s="7">
-        <v>173679</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4838,7 +4838,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>376157</v>
+        <v>382063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4858,10 +4858,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>62016</v>
+        <v>77957</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>334</v>
@@ -4873,34 +4873,34 @@
         <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
       </c>
       <c r="N13" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>271</v>
+      </c>
+      <c r="D14" s="7">
+        <v>197501</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="7">
         <v>265</v>
       </c>
-      <c r="D14" s="7">
-        <v>227408</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>240791</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="7">
-        <v>271</v>
-      </c>
-      <c r="I14" s="7">
-        <v>203811</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
       </c>
       <c r="N14" s="7">
-        <v>431218</v>
+        <v>438291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4963,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4978,7 +4978,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4993,7 +4993,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5013,49 +5013,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>226</v>
+      </c>
+      <c r="D16" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="7">
         <v>250</v>
       </c>
-      <c r="D16" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>182201</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H16" s="7">
-        <v>226</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
       </c>
       <c r="N16" s="7">
-        <v>326949</v>
+        <v>359916</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,25 +5064,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>715</v>
+      </c>
+      <c r="D17" s="7">
+        <v>484126</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="7">
         <v>726</v>
       </c>
-      <c r="D17" s="7">
-        <v>552435</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7">
-        <v>715</v>
-      </c>
       <c r="I17" s="7">
-        <v>496033</v>
+        <v>579064</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>362</v>
@@ -5097,7 +5097,7 @@
         <v>1441</v>
       </c>
       <c r="N17" s="7">
-        <v>1048469</v>
+        <v>1063190</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>365</v>
@@ -5115,25 +5115,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>661841</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724972</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>650445</v>
+        <v>761265</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5148,7 +5148,7 @@
         <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>1375418</v>
+        <v>1423106</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
